--- a/projects/test_building/input/Scenario_Radiator_Availability.xlsx
+++ b/projects/test_building/input/Scenario_Radiator_Availability.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
   <si>
     <t>unit</t>
   </si>
@@ -215,8 +215,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AT65" totalsRowShown="0">
-  <autoFilter ref="A1:AT65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AT97" totalsRowShown="0">
+  <autoFilter ref="A1:AT97"/>
+  <sortState ref="A2:AT97">
+    <sortCondition ref="B1:B97"/>
+  </sortState>
   <tableColumns count="46">
     <tableColumn id="2" name="id_region"/>
     <tableColumn id="3" name="id_building_type"/>
@@ -532,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT65"/>
+  <dimension ref="A1:AT97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,13 +975,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -1112,13 +1115,13 @@
         <v>9</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -1252,13 +1255,13 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
@@ -1392,13 +1395,13 @@
         <v>9</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>3</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -1532,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1672,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1812,13 +1815,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
@@ -1952,13 +1955,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -2092,13 +2095,13 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
@@ -2232,13 +2235,13 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
@@ -2372,7 +2375,7 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2512,7 +2515,7 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2652,13 +2655,13 @@
         <v>9</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
@@ -2792,13 +2795,13 @@
         <v>9</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
@@ -2932,13 +2935,13 @@
         <v>9</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
@@ -3072,13 +3075,13 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
@@ -3212,7 +3215,7 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3352,7 +3355,7 @@
         <v>9</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3492,13 +3495,13 @@
         <v>9</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
@@ -3632,13 +3635,13 @@
         <v>9</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>3</v>
@@ -3772,13 +3775,13 @@
         <v>9</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
         <v>3</v>
@@ -3912,13 +3915,13 @@
         <v>9</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
         <v>3</v>
@@ -4052,7 +4055,7 @@
         <v>9</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4192,7 +4195,7 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -4332,13 +4335,13 @@
         <v>9</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
@@ -4472,13 +4475,13 @@
         <v>9</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
@@ -4612,13 +4615,13 @@
         <v>9</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
         <v>3</v>
@@ -4752,13 +4755,13 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
@@ -4892,7 +4895,7 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -5032,7 +5035,7 @@
         <v>9</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -5172,13 +5175,13 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
         <v>3</v>
@@ -5312,13 +5315,13 @@
         <v>9</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
         <v>3</v>
@@ -5452,13 +5455,13 @@
         <v>9</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
         <v>3</v>
@@ -5592,13 +5595,13 @@
         <v>9</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
         <v>3</v>
@@ -5732,10 +5735,10 @@
         <v>9</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -5872,10 +5875,10 @@
         <v>9</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -6012,13 +6015,13 @@
         <v>9</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
         <v>3</v>
@@ -6152,13 +6155,13 @@
         <v>9</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>3</v>
@@ -6292,13 +6295,13 @@
         <v>9</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
         <v>3</v>
@@ -6432,13 +6435,13 @@
         <v>9</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" t="s">
         <v>3</v>
@@ -6572,10 +6575,10 @@
         <v>9</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -6712,10 +6715,10 @@
         <v>9</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -6852,13 +6855,13 @@
         <v>9</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
         <v>3</v>
@@ -6992,13 +6995,13 @@
         <v>9</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
         <v>3</v>
@@ -7138,7 +7141,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
         <v>3</v>
@@ -7278,7 +7281,7 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" t="s">
         <v>3</v>
@@ -7415,7 +7418,7 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -7555,7 +7558,7 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -7692,13 +7695,13 @@
         <v>9</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
         <v>3</v>
@@ -7832,13 +7835,13 @@
         <v>9</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
         <v>3</v>
@@ -7972,13 +7975,13 @@
         <v>9</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" t="s">
         <v>3</v>
@@ -8112,13 +8115,13 @@
         <v>9</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" t="s">
         <v>3</v>
@@ -8252,10 +8255,10 @@
         <v>9</v>
       </c>
       <c r="B56">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -8392,10 +8395,10 @@
         <v>9</v>
       </c>
       <c r="B57">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -8532,13 +8535,13 @@
         <v>9</v>
       </c>
       <c r="B58">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58" t="s">
         <v>3</v>
@@ -8672,13 +8675,13 @@
         <v>9</v>
       </c>
       <c r="B59">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
         <v>3</v>
@@ -8812,13 +8815,13 @@
         <v>9</v>
       </c>
       <c r="B60">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" t="s">
         <v>3</v>
@@ -8952,13 +8955,13 @@
         <v>9</v>
       </c>
       <c r="B61">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" t="s">
         <v>3</v>
@@ -9092,10 +9095,10 @@
         <v>9</v>
       </c>
       <c r="B62">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -9232,10 +9235,10 @@
         <v>9</v>
       </c>
       <c r="B63">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -9372,13 +9375,13 @@
         <v>9</v>
       </c>
       <c r="B64">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64" t="s">
         <v>3</v>
@@ -9512,13 +9515,13 @@
         <v>9</v>
       </c>
       <c r="B65">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
         <v>3</v>
@@ -9647,8 +9650,4488 @@
         <v>1</v>
       </c>
     </row>
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>1</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+      <c r="Z66">
+        <v>1</v>
+      </c>
+      <c r="AA66">
+        <v>1</v>
+      </c>
+      <c r="AB66">
+        <v>1</v>
+      </c>
+      <c r="AC66">
+        <v>1</v>
+      </c>
+      <c r="AD66">
+        <v>1</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
+      </c>
+      <c r="AF66">
+        <v>1</v>
+      </c>
+      <c r="AG66">
+        <v>1</v>
+      </c>
+      <c r="AH66">
+        <v>1</v>
+      </c>
+      <c r="AI66">
+        <v>1</v>
+      </c>
+      <c r="AJ66">
+        <v>1</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
+        <v>1</v>
+      </c>
+      <c r="AP66">
+        <v>1</v>
+      </c>
+      <c r="AQ66">
+        <v>1</v>
+      </c>
+      <c r="AR66">
+        <v>1</v>
+      </c>
+      <c r="AS66">
+        <v>1</v>
+      </c>
+      <c r="AT66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="W67">
+        <v>1</v>
+      </c>
+      <c r="X67">
+        <v>1</v>
+      </c>
+      <c r="Y67">
+        <v>1</v>
+      </c>
+      <c r="Z67">
+        <v>1</v>
+      </c>
+      <c r="AA67">
+        <v>1</v>
+      </c>
+      <c r="AB67">
+        <v>1</v>
+      </c>
+      <c r="AC67">
+        <v>1</v>
+      </c>
+      <c r="AD67">
+        <v>1</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
+      </c>
+      <c r="AF67">
+        <v>1</v>
+      </c>
+      <c r="AG67">
+        <v>1</v>
+      </c>
+      <c r="AH67">
+        <v>1</v>
+      </c>
+      <c r="AI67">
+        <v>1</v>
+      </c>
+      <c r="AJ67">
+        <v>1</v>
+      </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
+        <v>1</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
+        <v>1</v>
+      </c>
+      <c r="AP67">
+        <v>1</v>
+      </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
+      <c r="AR67">
+        <v>1</v>
+      </c>
+      <c r="AS67">
+        <v>1</v>
+      </c>
+      <c r="AT67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>1</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="Y68">
+        <v>1</v>
+      </c>
+      <c r="Z68">
+        <v>1</v>
+      </c>
+      <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68">
+        <v>1</v>
+      </c>
+      <c r="AC68">
+        <v>1</v>
+      </c>
+      <c r="AD68">
+        <v>1</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
+      </c>
+      <c r="AF68">
+        <v>1</v>
+      </c>
+      <c r="AG68">
+        <v>1</v>
+      </c>
+      <c r="AH68">
+        <v>1</v>
+      </c>
+      <c r="AI68">
+        <v>1</v>
+      </c>
+      <c r="AJ68">
+        <v>1</v>
+      </c>
+      <c r="AK68">
+        <v>1</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>1</v>
+      </c>
+      <c r="AQ68">
+        <v>1</v>
+      </c>
+      <c r="AR68">
+        <v>1</v>
+      </c>
+      <c r="AS68">
+        <v>1</v>
+      </c>
+      <c r="AT68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="V69">
+        <v>1</v>
+      </c>
+      <c r="W69">
+        <v>1</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
+      </c>
+      <c r="Y69">
+        <v>1</v>
+      </c>
+      <c r="Z69">
+        <v>1</v>
+      </c>
+      <c r="AA69">
+        <v>1</v>
+      </c>
+      <c r="AB69">
+        <v>1</v>
+      </c>
+      <c r="AC69">
+        <v>1</v>
+      </c>
+      <c r="AD69">
+        <v>1</v>
+      </c>
+      <c r="AE69">
+        <v>1</v>
+      </c>
+      <c r="AF69">
+        <v>1</v>
+      </c>
+      <c r="AG69">
+        <v>1</v>
+      </c>
+      <c r="AH69">
+        <v>1</v>
+      </c>
+      <c r="AI69">
+        <v>1</v>
+      </c>
+      <c r="AJ69">
+        <v>1</v>
+      </c>
+      <c r="AK69">
+        <v>1</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
+        <v>1</v>
+      </c>
+      <c r="AP69">
+        <v>1</v>
+      </c>
+      <c r="AQ69">
+        <v>1</v>
+      </c>
+      <c r="AR69">
+        <v>1</v>
+      </c>
+      <c r="AS69">
+        <v>1</v>
+      </c>
+      <c r="AT69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <v>1</v>
+      </c>
+      <c r="Y70">
+        <v>1</v>
+      </c>
+      <c r="Z70">
+        <v>1</v>
+      </c>
+      <c r="AA70">
+        <v>1</v>
+      </c>
+      <c r="AB70">
+        <v>1</v>
+      </c>
+      <c r="AC70">
+        <v>1</v>
+      </c>
+      <c r="AD70">
+        <v>1</v>
+      </c>
+      <c r="AE70">
+        <v>1</v>
+      </c>
+      <c r="AF70">
+        <v>1</v>
+      </c>
+      <c r="AG70">
+        <v>1</v>
+      </c>
+      <c r="AH70">
+        <v>1</v>
+      </c>
+      <c r="AI70">
+        <v>1</v>
+      </c>
+      <c r="AJ70">
+        <v>1</v>
+      </c>
+      <c r="AK70">
+        <v>1</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
+        <v>1</v>
+      </c>
+      <c r="AP70">
+        <v>1</v>
+      </c>
+      <c r="AQ70">
+        <v>1</v>
+      </c>
+      <c r="AR70">
+        <v>1</v>
+      </c>
+      <c r="AS70">
+        <v>1</v>
+      </c>
+      <c r="AT70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>1</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <v>1</v>
+      </c>
+      <c r="Y71">
+        <v>1</v>
+      </c>
+      <c r="Z71">
+        <v>1</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AB71">
+        <v>1</v>
+      </c>
+      <c r="AC71">
+        <v>1</v>
+      </c>
+      <c r="AD71">
+        <v>1</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
+      </c>
+      <c r="AF71">
+        <v>1</v>
+      </c>
+      <c r="AG71">
+        <v>1</v>
+      </c>
+      <c r="AH71">
+        <v>1</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
+      </c>
+      <c r="AJ71">
+        <v>1</v>
+      </c>
+      <c r="AK71">
+        <v>1</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
+        <v>1</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
+        <v>1</v>
+      </c>
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AR71">
+        <v>1</v>
+      </c>
+      <c r="AS71">
+        <v>1</v>
+      </c>
+      <c r="AT71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+      <c r="W72">
+        <v>1</v>
+      </c>
+      <c r="X72">
+        <v>1</v>
+      </c>
+      <c r="Y72">
+        <v>1</v>
+      </c>
+      <c r="Z72">
+        <v>1</v>
+      </c>
+      <c r="AA72">
+        <v>1</v>
+      </c>
+      <c r="AB72">
+        <v>1</v>
+      </c>
+      <c r="AC72">
+        <v>1</v>
+      </c>
+      <c r="AD72">
+        <v>1</v>
+      </c>
+      <c r="AE72">
+        <v>1</v>
+      </c>
+      <c r="AF72">
+        <v>1</v>
+      </c>
+      <c r="AG72">
+        <v>1</v>
+      </c>
+      <c r="AH72">
+        <v>1</v>
+      </c>
+      <c r="AI72">
+        <v>1</v>
+      </c>
+      <c r="AJ72">
+        <v>1</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
+        <v>1</v>
+      </c>
+      <c r="AP72">
+        <v>1</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AR72">
+        <v>1</v>
+      </c>
+      <c r="AS72">
+        <v>1</v>
+      </c>
+      <c r="AT72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
+      <c r="U73">
+        <v>1</v>
+      </c>
+      <c r="V73">
+        <v>1</v>
+      </c>
+      <c r="W73">
+        <v>1</v>
+      </c>
+      <c r="X73">
+        <v>1</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+      <c r="Z73">
+        <v>1</v>
+      </c>
+      <c r="AA73">
+        <v>1</v>
+      </c>
+      <c r="AB73">
+        <v>1</v>
+      </c>
+      <c r="AC73">
+        <v>1</v>
+      </c>
+      <c r="AD73">
+        <v>1</v>
+      </c>
+      <c r="AE73">
+        <v>1</v>
+      </c>
+      <c r="AF73">
+        <v>1</v>
+      </c>
+      <c r="AG73">
+        <v>1</v>
+      </c>
+      <c r="AH73">
+        <v>1</v>
+      </c>
+      <c r="AI73">
+        <v>1</v>
+      </c>
+      <c r="AJ73">
+        <v>1</v>
+      </c>
+      <c r="AK73">
+        <v>1</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
+        <v>1</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>1</v>
+      </c>
+      <c r="AP73">
+        <v>1</v>
+      </c>
+      <c r="AQ73">
+        <v>1</v>
+      </c>
+      <c r="AR73">
+        <v>1</v>
+      </c>
+      <c r="AS73">
+        <v>1</v>
+      </c>
+      <c r="AT73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <v>1</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>1</v>
+      </c>
+      <c r="Y74">
+        <v>1</v>
+      </c>
+      <c r="Z74">
+        <v>1</v>
+      </c>
+      <c r="AA74">
+        <v>1</v>
+      </c>
+      <c r="AB74">
+        <v>1</v>
+      </c>
+      <c r="AC74">
+        <v>1</v>
+      </c>
+      <c r="AD74">
+        <v>1</v>
+      </c>
+      <c r="AE74">
+        <v>1</v>
+      </c>
+      <c r="AF74">
+        <v>1</v>
+      </c>
+      <c r="AG74">
+        <v>1</v>
+      </c>
+      <c r="AH74">
+        <v>1</v>
+      </c>
+      <c r="AI74">
+        <v>1</v>
+      </c>
+      <c r="AJ74">
+        <v>1</v>
+      </c>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
+        <v>1</v>
+      </c>
+      <c r="AP74">
+        <v>1</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AR74">
+        <v>1</v>
+      </c>
+      <c r="AS74">
+        <v>1</v>
+      </c>
+      <c r="AT74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>13</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="V75">
+        <v>1</v>
+      </c>
+      <c r="W75">
+        <v>1</v>
+      </c>
+      <c r="X75">
+        <v>1</v>
+      </c>
+      <c r="Y75">
+        <v>1</v>
+      </c>
+      <c r="Z75">
+        <v>1</v>
+      </c>
+      <c r="AA75">
+        <v>1</v>
+      </c>
+      <c r="AB75">
+        <v>1</v>
+      </c>
+      <c r="AC75">
+        <v>1</v>
+      </c>
+      <c r="AD75">
+        <v>1</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
+      </c>
+      <c r="AF75">
+        <v>1</v>
+      </c>
+      <c r="AG75">
+        <v>1</v>
+      </c>
+      <c r="AH75">
+        <v>1</v>
+      </c>
+      <c r="AI75">
+        <v>1</v>
+      </c>
+      <c r="AJ75">
+        <v>1</v>
+      </c>
+      <c r="AK75">
+        <v>1</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
+        <v>1</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
+        <v>1</v>
+      </c>
+      <c r="AP75">
+        <v>1</v>
+      </c>
+      <c r="AQ75">
+        <v>1</v>
+      </c>
+      <c r="AR75">
+        <v>1</v>
+      </c>
+      <c r="AS75">
+        <v>1</v>
+      </c>
+      <c r="AT75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>13</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="U76">
+        <v>1</v>
+      </c>
+      <c r="V76">
+        <v>1</v>
+      </c>
+      <c r="W76">
+        <v>1</v>
+      </c>
+      <c r="X76">
+        <v>1</v>
+      </c>
+      <c r="Y76">
+        <v>1</v>
+      </c>
+      <c r="Z76">
+        <v>1</v>
+      </c>
+      <c r="AA76">
+        <v>1</v>
+      </c>
+      <c r="AB76">
+        <v>1</v>
+      </c>
+      <c r="AC76">
+        <v>1</v>
+      </c>
+      <c r="AD76">
+        <v>1</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
+      </c>
+      <c r="AF76">
+        <v>1</v>
+      </c>
+      <c r="AG76">
+        <v>1</v>
+      </c>
+      <c r="AH76">
+        <v>1</v>
+      </c>
+      <c r="AI76">
+        <v>1</v>
+      </c>
+      <c r="AJ76">
+        <v>1</v>
+      </c>
+      <c r="AK76">
+        <v>1</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
+        <v>1</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
+        <v>1</v>
+      </c>
+      <c r="AP76">
+        <v>1</v>
+      </c>
+      <c r="AQ76">
+        <v>1</v>
+      </c>
+      <c r="AR76">
+        <v>1</v>
+      </c>
+      <c r="AS76">
+        <v>1</v>
+      </c>
+      <c r="AT76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <v>1</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <v>1</v>
+      </c>
+      <c r="W77">
+        <v>1</v>
+      </c>
+      <c r="X77">
+        <v>1</v>
+      </c>
+      <c r="Y77">
+        <v>1</v>
+      </c>
+      <c r="Z77">
+        <v>1</v>
+      </c>
+      <c r="AA77">
+        <v>1</v>
+      </c>
+      <c r="AB77">
+        <v>1</v>
+      </c>
+      <c r="AC77">
+        <v>1</v>
+      </c>
+      <c r="AD77">
+        <v>1</v>
+      </c>
+      <c r="AE77">
+        <v>1</v>
+      </c>
+      <c r="AF77">
+        <v>1</v>
+      </c>
+      <c r="AG77">
+        <v>1</v>
+      </c>
+      <c r="AH77">
+        <v>1</v>
+      </c>
+      <c r="AI77">
+        <v>1</v>
+      </c>
+      <c r="AJ77">
+        <v>1</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
+        <v>1</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
+        <v>1</v>
+      </c>
+      <c r="AP77">
+        <v>1</v>
+      </c>
+      <c r="AQ77">
+        <v>1</v>
+      </c>
+      <c r="AR77">
+        <v>1</v>
+      </c>
+      <c r="AS77">
+        <v>1</v>
+      </c>
+      <c r="AT77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>13</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <v>1</v>
+      </c>
+      <c r="V78">
+        <v>1</v>
+      </c>
+      <c r="W78">
+        <v>1</v>
+      </c>
+      <c r="X78">
+        <v>1</v>
+      </c>
+      <c r="Y78">
+        <v>1</v>
+      </c>
+      <c r="Z78">
+        <v>1</v>
+      </c>
+      <c r="AA78">
+        <v>1</v>
+      </c>
+      <c r="AB78">
+        <v>1</v>
+      </c>
+      <c r="AC78">
+        <v>1</v>
+      </c>
+      <c r="AD78">
+        <v>1</v>
+      </c>
+      <c r="AE78">
+        <v>1</v>
+      </c>
+      <c r="AF78">
+        <v>1</v>
+      </c>
+      <c r="AG78">
+        <v>1</v>
+      </c>
+      <c r="AH78">
+        <v>1</v>
+      </c>
+      <c r="AI78">
+        <v>1</v>
+      </c>
+      <c r="AJ78">
+        <v>1</v>
+      </c>
+      <c r="AK78">
+        <v>1</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
+        <v>1</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
+        <v>1</v>
+      </c>
+      <c r="AP78">
+        <v>1</v>
+      </c>
+      <c r="AQ78">
+        <v>1</v>
+      </c>
+      <c r="AR78">
+        <v>1</v>
+      </c>
+      <c r="AS78">
+        <v>1</v>
+      </c>
+      <c r="AT78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>13</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>1</v>
+      </c>
+      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <v>1</v>
+      </c>
+      <c r="Y79">
+        <v>1</v>
+      </c>
+      <c r="Z79">
+        <v>1</v>
+      </c>
+      <c r="AA79">
+        <v>1</v>
+      </c>
+      <c r="AB79">
+        <v>1</v>
+      </c>
+      <c r="AC79">
+        <v>1</v>
+      </c>
+      <c r="AD79">
+        <v>1</v>
+      </c>
+      <c r="AE79">
+        <v>1</v>
+      </c>
+      <c r="AF79">
+        <v>1</v>
+      </c>
+      <c r="AG79">
+        <v>1</v>
+      </c>
+      <c r="AH79">
+        <v>1</v>
+      </c>
+      <c r="AI79">
+        <v>1</v>
+      </c>
+      <c r="AJ79">
+        <v>1</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
+        <v>1</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
+        <v>1</v>
+      </c>
+      <c r="AP79">
+        <v>1</v>
+      </c>
+      <c r="AQ79">
+        <v>1</v>
+      </c>
+      <c r="AR79">
+        <v>1</v>
+      </c>
+      <c r="AS79">
+        <v>1</v>
+      </c>
+      <c r="AT79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>9</v>
+      </c>
+      <c r="B80">
+        <v>14</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+      <c r="U80">
+        <v>1</v>
+      </c>
+      <c r="V80">
+        <v>1</v>
+      </c>
+      <c r="W80">
+        <v>1</v>
+      </c>
+      <c r="X80">
+        <v>1</v>
+      </c>
+      <c r="Y80">
+        <v>1</v>
+      </c>
+      <c r="Z80">
+        <v>1</v>
+      </c>
+      <c r="AA80">
+        <v>1</v>
+      </c>
+      <c r="AB80">
+        <v>1</v>
+      </c>
+      <c r="AC80">
+        <v>1</v>
+      </c>
+      <c r="AD80">
+        <v>1</v>
+      </c>
+      <c r="AE80">
+        <v>1</v>
+      </c>
+      <c r="AF80">
+        <v>1</v>
+      </c>
+      <c r="AG80">
+        <v>1</v>
+      </c>
+      <c r="AH80">
+        <v>1</v>
+      </c>
+      <c r="AI80">
+        <v>1</v>
+      </c>
+      <c r="AJ80">
+        <v>1</v>
+      </c>
+      <c r="AK80">
+        <v>1</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
+        <v>1</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
+        <v>1</v>
+      </c>
+      <c r="AP80">
+        <v>1</v>
+      </c>
+      <c r="AQ80">
+        <v>1</v>
+      </c>
+      <c r="AR80">
+        <v>1</v>
+      </c>
+      <c r="AS80">
+        <v>1</v>
+      </c>
+      <c r="AT80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>9</v>
+      </c>
+      <c r="B81">
+        <v>14</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+      <c r="U81">
+        <v>1</v>
+      </c>
+      <c r="V81">
+        <v>1</v>
+      </c>
+      <c r="W81">
+        <v>1</v>
+      </c>
+      <c r="X81">
+        <v>1</v>
+      </c>
+      <c r="Y81">
+        <v>1</v>
+      </c>
+      <c r="Z81">
+        <v>1</v>
+      </c>
+      <c r="AA81">
+        <v>1</v>
+      </c>
+      <c r="AB81">
+        <v>1</v>
+      </c>
+      <c r="AC81">
+        <v>1</v>
+      </c>
+      <c r="AD81">
+        <v>1</v>
+      </c>
+      <c r="AE81">
+        <v>1</v>
+      </c>
+      <c r="AF81">
+        <v>1</v>
+      </c>
+      <c r="AG81">
+        <v>1</v>
+      </c>
+      <c r="AH81">
+        <v>1</v>
+      </c>
+      <c r="AI81">
+        <v>1</v>
+      </c>
+      <c r="AJ81">
+        <v>1</v>
+      </c>
+      <c r="AK81">
+        <v>1</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
+        <v>1</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
+        <v>1</v>
+      </c>
+      <c r="AP81">
+        <v>1</v>
+      </c>
+      <c r="AQ81">
+        <v>1</v>
+      </c>
+      <c r="AR81">
+        <v>1</v>
+      </c>
+      <c r="AS81">
+        <v>1</v>
+      </c>
+      <c r="AT81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>14</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+      <c r="U82">
+        <v>1</v>
+      </c>
+      <c r="V82">
+        <v>1</v>
+      </c>
+      <c r="W82">
+        <v>1</v>
+      </c>
+      <c r="X82">
+        <v>1</v>
+      </c>
+      <c r="Y82">
+        <v>1</v>
+      </c>
+      <c r="Z82">
+        <v>1</v>
+      </c>
+      <c r="AA82">
+        <v>1</v>
+      </c>
+      <c r="AB82">
+        <v>1</v>
+      </c>
+      <c r="AC82">
+        <v>1</v>
+      </c>
+      <c r="AD82">
+        <v>1</v>
+      </c>
+      <c r="AE82">
+        <v>1</v>
+      </c>
+      <c r="AF82">
+        <v>1</v>
+      </c>
+      <c r="AG82">
+        <v>1</v>
+      </c>
+      <c r="AH82">
+        <v>1</v>
+      </c>
+      <c r="AI82">
+        <v>1</v>
+      </c>
+      <c r="AJ82">
+        <v>1</v>
+      </c>
+      <c r="AK82">
+        <v>1</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
+        <v>1</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
+        <v>1</v>
+      </c>
+      <c r="AP82">
+        <v>1</v>
+      </c>
+      <c r="AQ82">
+        <v>1</v>
+      </c>
+      <c r="AR82">
+        <v>1</v>
+      </c>
+      <c r="AS82">
+        <v>1</v>
+      </c>
+      <c r="AT82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>9</v>
+      </c>
+      <c r="B83">
+        <v>14</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+      <c r="U83">
+        <v>1</v>
+      </c>
+      <c r="V83">
+        <v>1</v>
+      </c>
+      <c r="W83">
+        <v>1</v>
+      </c>
+      <c r="X83">
+        <v>1</v>
+      </c>
+      <c r="Y83">
+        <v>1</v>
+      </c>
+      <c r="Z83">
+        <v>1</v>
+      </c>
+      <c r="AA83">
+        <v>1</v>
+      </c>
+      <c r="AB83">
+        <v>1</v>
+      </c>
+      <c r="AC83">
+        <v>1</v>
+      </c>
+      <c r="AD83">
+        <v>1</v>
+      </c>
+      <c r="AE83">
+        <v>1</v>
+      </c>
+      <c r="AF83">
+        <v>1</v>
+      </c>
+      <c r="AG83">
+        <v>1</v>
+      </c>
+      <c r="AH83">
+        <v>1</v>
+      </c>
+      <c r="AI83">
+        <v>1</v>
+      </c>
+      <c r="AJ83">
+        <v>1</v>
+      </c>
+      <c r="AK83">
+        <v>1</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
+        <v>1</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
+        <v>1</v>
+      </c>
+      <c r="AP83">
+        <v>1</v>
+      </c>
+      <c r="AQ83">
+        <v>1</v>
+      </c>
+      <c r="AR83">
+        <v>1</v>
+      </c>
+      <c r="AS83">
+        <v>1</v>
+      </c>
+      <c r="AT83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>9</v>
+      </c>
+      <c r="B84">
+        <v>14</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>1</v>
+      </c>
+      <c r="U84">
+        <v>1</v>
+      </c>
+      <c r="V84">
+        <v>1</v>
+      </c>
+      <c r="W84">
+        <v>1</v>
+      </c>
+      <c r="X84">
+        <v>1</v>
+      </c>
+      <c r="Y84">
+        <v>1</v>
+      </c>
+      <c r="Z84">
+        <v>1</v>
+      </c>
+      <c r="AA84">
+        <v>1</v>
+      </c>
+      <c r="AB84">
+        <v>1</v>
+      </c>
+      <c r="AC84">
+        <v>1</v>
+      </c>
+      <c r="AD84">
+        <v>1</v>
+      </c>
+      <c r="AE84">
+        <v>1</v>
+      </c>
+      <c r="AF84">
+        <v>1</v>
+      </c>
+      <c r="AG84">
+        <v>1</v>
+      </c>
+      <c r="AH84">
+        <v>1</v>
+      </c>
+      <c r="AI84">
+        <v>1</v>
+      </c>
+      <c r="AJ84">
+        <v>1</v>
+      </c>
+      <c r="AK84">
+        <v>1</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
+        <v>1</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
+        <v>1</v>
+      </c>
+      <c r="AP84">
+        <v>1</v>
+      </c>
+      <c r="AQ84">
+        <v>1</v>
+      </c>
+      <c r="AR84">
+        <v>1</v>
+      </c>
+      <c r="AS84">
+        <v>1</v>
+      </c>
+      <c r="AT84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>9</v>
+      </c>
+      <c r="B85">
+        <v>14</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="U85">
+        <v>1</v>
+      </c>
+      <c r="V85">
+        <v>1</v>
+      </c>
+      <c r="W85">
+        <v>1</v>
+      </c>
+      <c r="X85">
+        <v>1</v>
+      </c>
+      <c r="Y85">
+        <v>1</v>
+      </c>
+      <c r="Z85">
+        <v>1</v>
+      </c>
+      <c r="AA85">
+        <v>1</v>
+      </c>
+      <c r="AB85">
+        <v>1</v>
+      </c>
+      <c r="AC85">
+        <v>1</v>
+      </c>
+      <c r="AD85">
+        <v>1</v>
+      </c>
+      <c r="AE85">
+        <v>1</v>
+      </c>
+      <c r="AF85">
+        <v>1</v>
+      </c>
+      <c r="AG85">
+        <v>1</v>
+      </c>
+      <c r="AH85">
+        <v>1</v>
+      </c>
+      <c r="AI85">
+        <v>1</v>
+      </c>
+      <c r="AJ85">
+        <v>1</v>
+      </c>
+      <c r="AK85">
+        <v>1</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
+        <v>1</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
+        <v>1</v>
+      </c>
+      <c r="AP85">
+        <v>1</v>
+      </c>
+      <c r="AQ85">
+        <v>1</v>
+      </c>
+      <c r="AR85">
+        <v>1</v>
+      </c>
+      <c r="AS85">
+        <v>1</v>
+      </c>
+      <c r="AT85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>9</v>
+      </c>
+      <c r="B86">
+        <v>15</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
+      <c r="V86">
+        <v>1</v>
+      </c>
+      <c r="W86">
+        <v>1</v>
+      </c>
+      <c r="X86">
+        <v>1</v>
+      </c>
+      <c r="Y86">
+        <v>1</v>
+      </c>
+      <c r="Z86">
+        <v>1</v>
+      </c>
+      <c r="AA86">
+        <v>1</v>
+      </c>
+      <c r="AB86">
+        <v>1</v>
+      </c>
+      <c r="AC86">
+        <v>1</v>
+      </c>
+      <c r="AD86">
+        <v>1</v>
+      </c>
+      <c r="AE86">
+        <v>1</v>
+      </c>
+      <c r="AF86">
+        <v>1</v>
+      </c>
+      <c r="AG86">
+        <v>1</v>
+      </c>
+      <c r="AH86">
+        <v>1</v>
+      </c>
+      <c r="AI86">
+        <v>1</v>
+      </c>
+      <c r="AJ86">
+        <v>1</v>
+      </c>
+      <c r="AK86">
+        <v>1</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
+        <v>1</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
+        <v>1</v>
+      </c>
+      <c r="AP86">
+        <v>1</v>
+      </c>
+      <c r="AQ86">
+        <v>1</v>
+      </c>
+      <c r="AR86">
+        <v>1</v>
+      </c>
+      <c r="AS86">
+        <v>1</v>
+      </c>
+      <c r="AT86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>9</v>
+      </c>
+      <c r="B87">
+        <v>15</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <v>1</v>
+      </c>
+      <c r="U87">
+        <v>1</v>
+      </c>
+      <c r="V87">
+        <v>1</v>
+      </c>
+      <c r="W87">
+        <v>1</v>
+      </c>
+      <c r="X87">
+        <v>1</v>
+      </c>
+      <c r="Y87">
+        <v>1</v>
+      </c>
+      <c r="Z87">
+        <v>1</v>
+      </c>
+      <c r="AA87">
+        <v>1</v>
+      </c>
+      <c r="AB87">
+        <v>1</v>
+      </c>
+      <c r="AC87">
+        <v>1</v>
+      </c>
+      <c r="AD87">
+        <v>1</v>
+      </c>
+      <c r="AE87">
+        <v>1</v>
+      </c>
+      <c r="AF87">
+        <v>1</v>
+      </c>
+      <c r="AG87">
+        <v>1</v>
+      </c>
+      <c r="AH87">
+        <v>1</v>
+      </c>
+      <c r="AI87">
+        <v>1</v>
+      </c>
+      <c r="AJ87">
+        <v>1</v>
+      </c>
+      <c r="AK87">
+        <v>1</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
+        <v>1</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
+        <v>1</v>
+      </c>
+      <c r="AP87">
+        <v>1</v>
+      </c>
+      <c r="AQ87">
+        <v>1</v>
+      </c>
+      <c r="AR87">
+        <v>1</v>
+      </c>
+      <c r="AS87">
+        <v>1</v>
+      </c>
+      <c r="AT87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>9</v>
+      </c>
+      <c r="B88">
+        <v>15</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88">
+        <v>1</v>
+      </c>
+      <c r="U88">
+        <v>1</v>
+      </c>
+      <c r="V88">
+        <v>1</v>
+      </c>
+      <c r="W88">
+        <v>1</v>
+      </c>
+      <c r="X88">
+        <v>1</v>
+      </c>
+      <c r="Y88">
+        <v>1</v>
+      </c>
+      <c r="Z88">
+        <v>1</v>
+      </c>
+      <c r="AA88">
+        <v>1</v>
+      </c>
+      <c r="AB88">
+        <v>1</v>
+      </c>
+      <c r="AC88">
+        <v>1</v>
+      </c>
+      <c r="AD88">
+        <v>1</v>
+      </c>
+      <c r="AE88">
+        <v>1</v>
+      </c>
+      <c r="AF88">
+        <v>1</v>
+      </c>
+      <c r="AG88">
+        <v>1</v>
+      </c>
+      <c r="AH88">
+        <v>1</v>
+      </c>
+      <c r="AI88">
+        <v>1</v>
+      </c>
+      <c r="AJ88">
+        <v>1</v>
+      </c>
+      <c r="AK88">
+        <v>1</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
+        <v>1</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
+        <v>1</v>
+      </c>
+      <c r="AP88">
+        <v>1</v>
+      </c>
+      <c r="AQ88">
+        <v>1</v>
+      </c>
+      <c r="AR88">
+        <v>1</v>
+      </c>
+      <c r="AS88">
+        <v>1</v>
+      </c>
+      <c r="AT88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>15</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+      <c r="U89">
+        <v>1</v>
+      </c>
+      <c r="V89">
+        <v>1</v>
+      </c>
+      <c r="W89">
+        <v>1</v>
+      </c>
+      <c r="X89">
+        <v>1</v>
+      </c>
+      <c r="Y89">
+        <v>1</v>
+      </c>
+      <c r="Z89">
+        <v>1</v>
+      </c>
+      <c r="AA89">
+        <v>1</v>
+      </c>
+      <c r="AB89">
+        <v>1</v>
+      </c>
+      <c r="AC89">
+        <v>1</v>
+      </c>
+      <c r="AD89">
+        <v>1</v>
+      </c>
+      <c r="AE89">
+        <v>1</v>
+      </c>
+      <c r="AF89">
+        <v>1</v>
+      </c>
+      <c r="AG89">
+        <v>1</v>
+      </c>
+      <c r="AH89">
+        <v>1</v>
+      </c>
+      <c r="AI89">
+        <v>1</v>
+      </c>
+      <c r="AJ89">
+        <v>1</v>
+      </c>
+      <c r="AK89">
+        <v>1</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
+        <v>1</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
+        <v>1</v>
+      </c>
+      <c r="AP89">
+        <v>1</v>
+      </c>
+      <c r="AQ89">
+        <v>1</v>
+      </c>
+      <c r="AR89">
+        <v>1</v>
+      </c>
+      <c r="AS89">
+        <v>1</v>
+      </c>
+      <c r="AT89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>9</v>
+      </c>
+      <c r="B90">
+        <v>15</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+      <c r="U90">
+        <v>1</v>
+      </c>
+      <c r="V90">
+        <v>1</v>
+      </c>
+      <c r="W90">
+        <v>1</v>
+      </c>
+      <c r="X90">
+        <v>1</v>
+      </c>
+      <c r="Y90">
+        <v>1</v>
+      </c>
+      <c r="Z90">
+        <v>1</v>
+      </c>
+      <c r="AA90">
+        <v>1</v>
+      </c>
+      <c r="AB90">
+        <v>1</v>
+      </c>
+      <c r="AC90">
+        <v>1</v>
+      </c>
+      <c r="AD90">
+        <v>1</v>
+      </c>
+      <c r="AE90">
+        <v>1</v>
+      </c>
+      <c r="AF90">
+        <v>1</v>
+      </c>
+      <c r="AG90">
+        <v>1</v>
+      </c>
+      <c r="AH90">
+        <v>1</v>
+      </c>
+      <c r="AI90">
+        <v>1</v>
+      </c>
+      <c r="AJ90">
+        <v>1</v>
+      </c>
+      <c r="AK90">
+        <v>1</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
+        <v>1</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
+        <v>1</v>
+      </c>
+      <c r="AP90">
+        <v>1</v>
+      </c>
+      <c r="AQ90">
+        <v>1</v>
+      </c>
+      <c r="AR90">
+        <v>1</v>
+      </c>
+      <c r="AS90">
+        <v>1</v>
+      </c>
+      <c r="AT90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>15</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91">
+        <v>1</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
+      </c>
+      <c r="V91">
+        <v>1</v>
+      </c>
+      <c r="W91">
+        <v>1</v>
+      </c>
+      <c r="X91">
+        <v>1</v>
+      </c>
+      <c r="Y91">
+        <v>1</v>
+      </c>
+      <c r="Z91">
+        <v>1</v>
+      </c>
+      <c r="AA91">
+        <v>1</v>
+      </c>
+      <c r="AB91">
+        <v>1</v>
+      </c>
+      <c r="AC91">
+        <v>1</v>
+      </c>
+      <c r="AD91">
+        <v>1</v>
+      </c>
+      <c r="AE91">
+        <v>1</v>
+      </c>
+      <c r="AF91">
+        <v>1</v>
+      </c>
+      <c r="AG91">
+        <v>1</v>
+      </c>
+      <c r="AH91">
+        <v>1</v>
+      </c>
+      <c r="AI91">
+        <v>1</v>
+      </c>
+      <c r="AJ91">
+        <v>1</v>
+      </c>
+      <c r="AK91">
+        <v>1</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
+        <v>1</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
+        <v>1</v>
+      </c>
+      <c r="AP91">
+        <v>1</v>
+      </c>
+      <c r="AQ91">
+        <v>1</v>
+      </c>
+      <c r="AR91">
+        <v>1</v>
+      </c>
+      <c r="AS91">
+        <v>1</v>
+      </c>
+      <c r="AT91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>9</v>
+      </c>
+      <c r="B92">
+        <v>16</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92">
+        <v>1</v>
+      </c>
+      <c r="U92">
+        <v>1</v>
+      </c>
+      <c r="V92">
+        <v>1</v>
+      </c>
+      <c r="W92">
+        <v>1</v>
+      </c>
+      <c r="X92">
+        <v>1</v>
+      </c>
+      <c r="Y92">
+        <v>1</v>
+      </c>
+      <c r="Z92">
+        <v>1</v>
+      </c>
+      <c r="AA92">
+        <v>1</v>
+      </c>
+      <c r="AB92">
+        <v>1</v>
+      </c>
+      <c r="AC92">
+        <v>1</v>
+      </c>
+      <c r="AD92">
+        <v>1</v>
+      </c>
+      <c r="AE92">
+        <v>1</v>
+      </c>
+      <c r="AF92">
+        <v>1</v>
+      </c>
+      <c r="AG92">
+        <v>1</v>
+      </c>
+      <c r="AH92">
+        <v>1</v>
+      </c>
+      <c r="AI92">
+        <v>1</v>
+      </c>
+      <c r="AJ92">
+        <v>1</v>
+      </c>
+      <c r="AK92">
+        <v>1</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
+        <v>1</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
+        <v>1</v>
+      </c>
+      <c r="AP92">
+        <v>1</v>
+      </c>
+      <c r="AQ92">
+        <v>1</v>
+      </c>
+      <c r="AR92">
+        <v>1</v>
+      </c>
+      <c r="AS92">
+        <v>1</v>
+      </c>
+      <c r="AT92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>9</v>
+      </c>
+      <c r="B93">
+        <v>16</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <v>1</v>
+      </c>
+      <c r="U93">
+        <v>1</v>
+      </c>
+      <c r="V93">
+        <v>1</v>
+      </c>
+      <c r="W93">
+        <v>1</v>
+      </c>
+      <c r="X93">
+        <v>1</v>
+      </c>
+      <c r="Y93">
+        <v>1</v>
+      </c>
+      <c r="Z93">
+        <v>1</v>
+      </c>
+      <c r="AA93">
+        <v>1</v>
+      </c>
+      <c r="AB93">
+        <v>1</v>
+      </c>
+      <c r="AC93">
+        <v>1</v>
+      </c>
+      <c r="AD93">
+        <v>1</v>
+      </c>
+      <c r="AE93">
+        <v>1</v>
+      </c>
+      <c r="AF93">
+        <v>1</v>
+      </c>
+      <c r="AG93">
+        <v>1</v>
+      </c>
+      <c r="AH93">
+        <v>1</v>
+      </c>
+      <c r="AI93">
+        <v>1</v>
+      </c>
+      <c r="AJ93">
+        <v>1</v>
+      </c>
+      <c r="AK93">
+        <v>1</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
+      <c r="AM93">
+        <v>1</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
+        <v>1</v>
+      </c>
+      <c r="AP93">
+        <v>1</v>
+      </c>
+      <c r="AQ93">
+        <v>1</v>
+      </c>
+      <c r="AR93">
+        <v>1</v>
+      </c>
+      <c r="AS93">
+        <v>1</v>
+      </c>
+      <c r="AT93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>9</v>
+      </c>
+      <c r="B94">
+        <v>16</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+      <c r="T94">
+        <v>1</v>
+      </c>
+      <c r="U94">
+        <v>1</v>
+      </c>
+      <c r="V94">
+        <v>1</v>
+      </c>
+      <c r="W94">
+        <v>1</v>
+      </c>
+      <c r="X94">
+        <v>1</v>
+      </c>
+      <c r="Y94">
+        <v>1</v>
+      </c>
+      <c r="Z94">
+        <v>1</v>
+      </c>
+      <c r="AA94">
+        <v>1</v>
+      </c>
+      <c r="AB94">
+        <v>1</v>
+      </c>
+      <c r="AC94">
+        <v>1</v>
+      </c>
+      <c r="AD94">
+        <v>1</v>
+      </c>
+      <c r="AE94">
+        <v>1</v>
+      </c>
+      <c r="AF94">
+        <v>1</v>
+      </c>
+      <c r="AG94">
+        <v>1</v>
+      </c>
+      <c r="AH94">
+        <v>1</v>
+      </c>
+      <c r="AI94">
+        <v>1</v>
+      </c>
+      <c r="AJ94">
+        <v>1</v>
+      </c>
+      <c r="AK94">
+        <v>1</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94">
+        <v>1</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
+        <v>1</v>
+      </c>
+      <c r="AP94">
+        <v>1</v>
+      </c>
+      <c r="AQ94">
+        <v>1</v>
+      </c>
+      <c r="AR94">
+        <v>1</v>
+      </c>
+      <c r="AS94">
+        <v>1</v>
+      </c>
+      <c r="AT94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>9</v>
+      </c>
+      <c r="B95">
+        <v>16</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="S95">
+        <v>1</v>
+      </c>
+      <c r="T95">
+        <v>1</v>
+      </c>
+      <c r="U95">
+        <v>1</v>
+      </c>
+      <c r="V95">
+        <v>1</v>
+      </c>
+      <c r="W95">
+        <v>1</v>
+      </c>
+      <c r="X95">
+        <v>1</v>
+      </c>
+      <c r="Y95">
+        <v>1</v>
+      </c>
+      <c r="Z95">
+        <v>1</v>
+      </c>
+      <c r="AA95">
+        <v>1</v>
+      </c>
+      <c r="AB95">
+        <v>1</v>
+      </c>
+      <c r="AC95">
+        <v>1</v>
+      </c>
+      <c r="AD95">
+        <v>1</v>
+      </c>
+      <c r="AE95">
+        <v>1</v>
+      </c>
+      <c r="AF95">
+        <v>1</v>
+      </c>
+      <c r="AG95">
+        <v>1</v>
+      </c>
+      <c r="AH95">
+        <v>1</v>
+      </c>
+      <c r="AI95">
+        <v>1</v>
+      </c>
+      <c r="AJ95">
+        <v>1</v>
+      </c>
+      <c r="AK95">
+        <v>1</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
+        <v>1</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
+        <v>1</v>
+      </c>
+      <c r="AP95">
+        <v>1</v>
+      </c>
+      <c r="AQ95">
+        <v>1</v>
+      </c>
+      <c r="AR95">
+        <v>1</v>
+      </c>
+      <c r="AS95">
+        <v>1</v>
+      </c>
+      <c r="AT95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>9</v>
+      </c>
+      <c r="B96">
+        <v>16</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="T96">
+        <v>1</v>
+      </c>
+      <c r="U96">
+        <v>1</v>
+      </c>
+      <c r="V96">
+        <v>1</v>
+      </c>
+      <c r="W96">
+        <v>1</v>
+      </c>
+      <c r="X96">
+        <v>1</v>
+      </c>
+      <c r="Y96">
+        <v>1</v>
+      </c>
+      <c r="Z96">
+        <v>1</v>
+      </c>
+      <c r="AA96">
+        <v>1</v>
+      </c>
+      <c r="AB96">
+        <v>1</v>
+      </c>
+      <c r="AC96">
+        <v>1</v>
+      </c>
+      <c r="AD96">
+        <v>1</v>
+      </c>
+      <c r="AE96">
+        <v>1</v>
+      </c>
+      <c r="AF96">
+        <v>1</v>
+      </c>
+      <c r="AG96">
+        <v>1</v>
+      </c>
+      <c r="AH96">
+        <v>1</v>
+      </c>
+      <c r="AI96">
+        <v>1</v>
+      </c>
+      <c r="AJ96">
+        <v>1</v>
+      </c>
+      <c r="AK96">
+        <v>1</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
+        <v>1</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
+        <v>1</v>
+      </c>
+      <c r="AP96">
+        <v>1</v>
+      </c>
+      <c r="AQ96">
+        <v>1</v>
+      </c>
+      <c r="AR96">
+        <v>1</v>
+      </c>
+      <c r="AS96">
+        <v>1</v>
+      </c>
+      <c r="AT96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>9</v>
+      </c>
+      <c r="B97">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97">
+        <v>1</v>
+      </c>
+      <c r="T97">
+        <v>1</v>
+      </c>
+      <c r="U97">
+        <v>1</v>
+      </c>
+      <c r="V97">
+        <v>1</v>
+      </c>
+      <c r="W97">
+        <v>1</v>
+      </c>
+      <c r="X97">
+        <v>1</v>
+      </c>
+      <c r="Y97">
+        <v>1</v>
+      </c>
+      <c r="Z97">
+        <v>1</v>
+      </c>
+      <c r="AA97">
+        <v>1</v>
+      </c>
+      <c r="AB97">
+        <v>1</v>
+      </c>
+      <c r="AC97">
+        <v>1</v>
+      </c>
+      <c r="AD97">
+        <v>1</v>
+      </c>
+      <c r="AE97">
+        <v>1</v>
+      </c>
+      <c r="AF97">
+        <v>1</v>
+      </c>
+      <c r="AG97">
+        <v>1</v>
+      </c>
+      <c r="AH97">
+        <v>1</v>
+      </c>
+      <c r="AI97">
+        <v>1</v>
+      </c>
+      <c r="AJ97">
+        <v>1</v>
+      </c>
+      <c r="AK97">
+        <v>1</v>
+      </c>
+      <c r="AL97">
+        <v>1</v>
+      </c>
+      <c r="AM97">
+        <v>1</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
+        <v>1</v>
+      </c>
+      <c r="AP97">
+        <v>1</v>
+      </c>
+      <c r="AQ97">
+        <v>1</v>
+      </c>
+      <c r="AR97">
+        <v>1</v>
+      </c>
+      <c r="AS97">
+        <v>1</v>
+      </c>
+      <c r="AT97">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:AT65">
+  <conditionalFormatting sqref="F2:AT97">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>

--- a/projects/test_building/input/Scenario_Radiator_Availability.xlsx
+++ b/projects/test_building/input/Scenario_Radiator_Availability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="3420" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="7320" yWindow="3420" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -537,20 +537,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="AB79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:AT97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -690,7 +690,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>9</v>
       </c>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>9</v>
       </c>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>9</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>9</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>9</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>9</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>9</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>9</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>9</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>9</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>9</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>9</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>9</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>9</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>9</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>9</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>9</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>9</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>9</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>9</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>9</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>9</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>9</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>9</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>9</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>9</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>9</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>9</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>9</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>9</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>9</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>9</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>9</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>9</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>9</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>9</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>9</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>9</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>9</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>9</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>9</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>9</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>9</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>9</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>9</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>9</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>9</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>9</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>9</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>9</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>9</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>9</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>9</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>9</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>9</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>9</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>9</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>9</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>9</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>9</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>9</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>9</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>9</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>9</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>9</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>9</v>
       </c>
@@ -11470,7 +11470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>9</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>9</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>9</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>9</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>9</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>9</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>9</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>9</v>
       </c>
@@ -12590,7 +12590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>9</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>9</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>9</v>
       </c>
@@ -13010,7 +13010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>9</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>9</v>
       </c>
@@ -13290,7 +13290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>9</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>9</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>9</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>9</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>9</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>9</v>
       </c>
@@ -14131,18 +14131,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:AT97">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
